--- a/data/trans_dic/P12B-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12B-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>11,57%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>8,37%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>10,55%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,67%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>11,05%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 12,81</t>
+          <t>6,83; 13,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,49</t>
+          <t>5,47; 10,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,12</t>
+          <t>6,45; 12,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,29</t>
+          <t>8,13; 14,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,35</t>
+          <t>9,29; 14,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,86</t>
+          <t>10,85; 17,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,57</t>
+          <t>6,95; 11,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,46</t>
+          <t>8,02; 12,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,08</t>
+          <t>6,51; 10,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,4</t>
+          <t>8,43; 14,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,63</t>
+          <t>8,35; 13,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,91</t>
+          <t>10,36; 15,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 11,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 10,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 10,17</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 13,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 13,01</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 15,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>14,4%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,63</t>
+          <t>4,93; 11,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,54</t>
+          <t>4,74; 8,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,04</t>
+          <t>5,28; 10,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,5</t>
+          <t>5,28; 10,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,14</t>
+          <t>6,51; 14,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,36</t>
+          <t>5,54; 13,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 14,26</t>
+          <t>7,87; 14,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 21,35</t>
+          <t>6,67; 11,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,82</t>
+          <t>8,87; 15,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,49</t>
+          <t>9,87; 19,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,56</t>
+          <t>9,23; 22,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 16,08</t>
+          <t>2,23; 9,07</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 11,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 9,33</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 11,96</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 14,09</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 16,31</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 10,0</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>11,5%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 18,99</t>
+          <t>5,37; 17,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 25,86</t>
+          <t>9,35; 29,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,37</t>
+          <t>4,54; 15,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,55; 37,66</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 19,3</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 21,26</t>
+          <t>7,45; 19,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>7,52; 17,78</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 21,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 18,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 16,47</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,47; 18,99</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 15,96</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 15,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 20,8</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 15,93</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 23,89</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>11,12%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,6%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>11,38%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>11,25%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,01</t>
+          <t>6,79; 11,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,23</t>
+          <t>6,66; 10,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,41</t>
+          <t>6,41; 9,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,31</t>
+          <t>8,36; 13,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 11,46</t>
+          <t>9,05; 13,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,35</t>
+          <t>10,27; 15,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,98</t>
+          <t>8,31; 11,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,71</t>
+          <t>8,29; 11,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 10,64</t>
+          <t>8,77; 12,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,25</t>
+          <t>9,84; 14,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 10,69</t>
+          <t>9,21; 13,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 12,95</t>
+          <t>8,92; 13,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 11,0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 10,42</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 10,57</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 13,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 13,0</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 13,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>152293</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124363</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>139344</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>176037</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26558</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28340</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>163294</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>180602</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>151991</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>196235</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25074</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26737</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>315587</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>304965</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>291336</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>372271</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>51632</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>55077</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>112928; 229704</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89862; 177961</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>105927; 198329</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>131450; 227441</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21318; 32585</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22356; 35469</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>125635; 206938</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>146453; 220740</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>118093; 188842</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>148035; 247850</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19838; 31559</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21721; 33141</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>255712; 394673</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>253209; 366375</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>241164; 351705</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>305815; 453589</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>44352; 60792</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>47071; 63623</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99729</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>91505</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>99985</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>102809</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6993</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>145509</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>121477</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>160595</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>186274</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3064</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>245238</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>212982</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>260580</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>289083</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>16435</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9037</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>67798; 158819</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>65355; 123826</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>72551; 140496</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71590; 143478</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4709; 10618</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3658; 9173</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>109126; 195688</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>91593; 153968</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>122629; 218922</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>135264; 272719</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6050; 14929</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1355; 5506</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>197373; 321314</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>168776; 256620</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>214481; 329560</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>227117; 384081</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>12032; 22484</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6220; 12679</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41848</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66725</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35873</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68546</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>50806</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62235</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36267</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>91889</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>117531</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>98108</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>104812</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22486; 73114</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39541; 122845</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19062; 63614</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30594; 152598</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30705; 81962</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30800; 72826</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41517; 86996</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16206; 71114</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>62346; 128974</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>85706; 173096</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>67152; 132475</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>61783; 191031</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>293870</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>282592</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>275202</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>347391</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>33552</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34314</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>358844</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>352885</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>374822</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>418776</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34516</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29800</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>652714</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>635478</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>650024</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>766167</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>68067</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>64115</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>234065; 382140</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>229289; 356098</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>220008; 340810</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>282487; 464787</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27313; 40503</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27961; 41870</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>299428; 432283</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>299054; 407342</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>316513; 440415</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>346513; 506435</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27930; 41608</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24104; 36492</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>565677; 775865</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>559746; 735283</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>571981; 744386</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>659965; 902350</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>58691; 78644</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>55736; 74647</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
